--- a/PTBR/Lang/PTBR/Dialog/Drama/parttimer_jure.xlsx
+++ b/PTBR/Lang/PTBR/Dialog/Drama/parttimer_jure.xlsx
@@ -1,17 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Dialog\Drama\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D77391-963A-4A8C-ACB1-DCB8B074E5EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="fiama" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="fiama" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
@@ -20,145 +36,146 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
-  <si>
-    <t xml:space="preserve">step</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jump</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if</t>
-  </si>
-  <si>
-    <t xml:space="preserve">action</t>
-  </si>
-  <si>
-    <t xml:space="preserve">param</t>
-  </si>
-  <si>
-    <t xml:space="preserve">actor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">text_JP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">text_EN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">main</t>
-  </si>
-  <si>
-    <t xml:space="preserve">start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ジュア教団では、ただ今他の神からの乗り換えキャンペーン実施中だ。
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
+  <si>
+    <t>step</t>
+  </si>
+  <si>
+    <t>jump</t>
+  </si>
+  <si>
+    <t>if</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>param</t>
+  </si>
+  <si>
+    <t>actor</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>text_JP</t>
+  </si>
+  <si>
+    <t>text_EN</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>ジュア教団では、ただ今他の神からの乗り換えキャンペーン実施中だ。
 今なら改宗の懲罰なし！信仰日数も持ち越し！さらになんと、無料で数量限定のジュア様の抱き枕も付けちゃうよ！
 お客さん…このチャンスを見逃す手はないよ。</t>
   </si>
   <si>
-    <t xml:space="preserve">The Church of Jure is running a special conversion campaign right now!
+    <t>The Church of Jure is running a special conversion campaign right now!
 Switch from another god, and there’s no penalty—plus, your days of faith carry over! And wait, there’s more! For a limited time, you’ll also get an exclusive Jure body pillow absolutely free!
 So, my friend… don’t let this chance slip through your fingers!</t>
   </si>
   <si>
-    <t xml:space="preserve">yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">はい</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">いいえ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cancel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">よし、本当に改宗していいね？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Okie, just making sure. Do you really want to convert your religion?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">あざーっす！やっと今日のノルマが達成できたよ。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thanks! Phew, I just filled my daily quota.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">invoke</t>
-  </si>
-  <si>
-    <t xml:space="preserve">convert_Jure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">end</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ちっ！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shit!</t>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>choice</t>
+  </si>
+  <si>
+    <t>はい</t>
+  </si>
+  <si>
+    <t>Yes.</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>いいえ</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>cancel</t>
+  </si>
+  <si>
+    <t>よし、本当に改宗していいね？</t>
+  </si>
+  <si>
+    <t>Okie, just making sure. Do you really want to convert your religion?</t>
+  </si>
+  <si>
+    <t>yes2</t>
+  </si>
+  <si>
+    <t>あざーっす！やっと今日のノルマが達成できたよ。</t>
+  </si>
+  <si>
+    <t>Thanks! Phew, I just filled my daily quota.</t>
+  </si>
+  <si>
+    <t>invoke</t>
+  </si>
+  <si>
+    <t>convert_Jure</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>ちっ！</t>
+  </si>
+  <si>
+    <t>Shit!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Igreja de Jure está realizando uma campanha especial de conversão neste momento!  _x000D_
+_x000D_
+Mude de outro deus sem penalidades—e mais, seus dias de fé serão transferidos! E espere, tem mais! Por tempo limitado, você também receberá um travesseiro de corpo exclusivo de Jure totalmente de graça!  _x000D_
+_x000D_
+Então, meu amigo… não deixe essa chance escapar pelos seus dedos!  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sim.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ok, só para ter certeza. Você realmente quer mudar de religião?  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obrigado! Ufa, acabei de cumprir minha cota diária.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Droga!  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="游ゴシック"/>
       <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -177,7 +194,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -185,64 +202,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
       <font>
+        <color rgb="FFCC0000"/>
         <name val="游ゴシック"/>
+        <family val="2"/>
         <charset val="128"/>
-        <family val="2"/>
-        <color rgb="FFCC0000"/>
       </font>
       <fill>
         <patternFill>
@@ -251,6 +230,7 @@
       </fill>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -309,62 +289,78 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="LibreOffice">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="18a303"/>
+        <a:srgbClr val="18A303"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="0369a3"/>
+        <a:srgbClr val="0369A3"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a33e03"/>
+        <a:srgbClr val="A33E03"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8e03a3"/>
+        <a:srgbClr val="8E03A3"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="c99c00"/>
+        <a:srgbClr val="C99C00"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="c9211e"/>
+        <a:srgbClr val="C9211E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000ee"/>
+        <a:srgbClr val="0000EE"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="551a8b"/>
+        <a:srgbClr val="551A8B"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="DejaVu Sans"/>
+        <a:cs typeface="DejaVu Sans"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="DejaVu Sans"/>
+        <a:cs typeface="DejaVu Sans"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme>
@@ -417,251 +413,269 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="8.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="7.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="42.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="53.28"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" customWidth="1"/>
+    <col min="7" max="8" width="7.140625" customWidth="1"/>
+    <col min="9" max="9" width="42.140625" customWidth="1"/>
+    <col min="10" max="10" width="53.28515625" customWidth="1"/>
+    <col min="11" max="11" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H2" s="1" t="n">
-        <f aca="false">MAX(H4:H1048576)</f>
+    <row r="2" spans="1:11">
+      <c r="H2">
+        <f>MAX(H4:H1048576)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="1:11">
+      <c r="B5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H11" s="1" t="n">
+    <row r="11" spans="1:11" ht="165">
+      <c r="H11">
         <v>1</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="1" t="s">
+      <c r="K11" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="B12" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="1" t="n">
+      <c r="H12">
         <v>2</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" t="s">
         <v>18</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="1" t="s">
+      <c r="K12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="B13" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="1" t="n">
+      <c r="H13">
         <v>3</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" t="s">
         <v>21</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J13" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D14" s="1" t="s">
+      <c r="K13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="D14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H21" s="1" t="n">
+    <row r="21" spans="1:11" ht="33">
+      <c r="H21">
         <v>4</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="I21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="J21" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="1" t="s">
+      <c r="K21" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="B22" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" t="s">
         <v>17</v>
       </c>
-      <c r="H22" s="1" t="n">
+      <c r="H22">
         <v>5</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="I22" t="s">
         <v>18</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="J22" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="1" t="s">
+      <c r="K22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="B23" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="1" t="n">
+      <c r="H23">
         <v>6</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="I23" t="s">
         <v>21</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="J23" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
+      <c r="K23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H27" s="1" t="n">
+    <row r="27" spans="1:11">
+      <c r="H27">
         <v>7</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="I27" t="s">
         <v>27</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="J27" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D28" s="1" t="s">
+      <c r="K27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="D28" t="s">
         <v>29</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="1" t="s">
+    <row r="29" spans="1:11">
+      <c r="B29" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:11">
+      <c r="A30" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H32" s="1" t="n">
+    <row r="32" spans="1:11">
+      <c r="H32">
         <v>8</v>
       </c>
-      <c r="I32" s="3" t="s">
+      <c r="I32" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J32" s="3" t="s">
+      <c r="J32" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="1" t="s">
+      <c r="K32" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="H4:H1048576">
-    <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>